--- a/informacao_municipio.xlsx
+++ b/informacao_municipio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="978">
   <si>
     <t>Cod_IBGE</t>
   </si>
@@ -2947,6 +2947,9 @@
   </si>
   <si>
     <t>2238.85</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -3295,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X225"/>
+    <sheetView tabSelected="1" topLeftCell="B199" workbookViewId="0">
+      <selection activeCell="X225" sqref="X225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19955,7 +19958,7 @@
         <v>976</v>
       </c>
       <c r="X225" s="1" t="s">
-        <v>780</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/informacao_municipio.xlsx
+++ b/informacao_municipio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="977">
   <si>
     <t>Cod_IBGE</t>
   </si>
@@ -2947,9 +2947,6 @@
   </si>
   <si>
     <t>2238.85</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -3298,14 +3295,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B199" workbookViewId="0">
-      <selection activeCell="X225" sqref="X225"/>
+    <sheetView tabSelected="1" topLeftCell="K196" workbookViewId="0">
+      <selection activeCell="P225" sqref="P225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" customWidth="1"/>
+    <col min="19" max="19" width="36.90625" customWidth="1"/>
     <col min="20" max="20" width="15.08984375" customWidth="1"/>
     <col min="21" max="21" width="15.81640625" customWidth="1"/>
     <col min="22" max="22" width="16.81640625" customWidth="1"/>
@@ -19958,7 +19959,7 @@
         <v>976</v>
       </c>
       <c r="X225" s="1" t="s">
-        <v>977</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/informacao_municipio.xlsx
+++ b/informacao_municipio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="978">
   <si>
     <t>Cod_IBGE</t>
   </si>
@@ -2947,6 +2947,9 @@
   </si>
   <si>
     <t>2238.85</t>
+  </si>
+  <si>
+    <t>valor novo 2.60</t>
   </si>
 </sst>
 </file>
@@ -3295,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K196" workbookViewId="0">
-      <selection activeCell="P225" sqref="P225"/>
+    <sheetView tabSelected="1" topLeftCell="R214" workbookViewId="0">
+      <selection activeCell="X225" sqref="X225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19959,7 +19962,7 @@
         <v>976</v>
       </c>
       <c r="X225" s="1" t="s">
-        <v>780</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/informacao_municipio.xlsx
+++ b/informacao_municipio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="977">
   <si>
     <t>Cod_IBGE</t>
   </si>
@@ -2947,9 +2947,6 @@
   </si>
   <si>
     <t>2238.85</t>
-  </si>
-  <si>
-    <t>valor novo 2.60</t>
   </si>
 </sst>
 </file>
@@ -3299,7 +3296,7 @@
   <dimension ref="A1:X225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R214" workbookViewId="0">
-      <selection activeCell="X225" sqref="X225"/>
+      <selection activeCell="X221" sqref="X221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19962,7 +19959,7 @@
         <v>976</v>
       </c>
       <c r="X225" s="1" t="s">
-        <v>977</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
